--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322229.0822161509</v>
+        <v>319568.6434709519</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673446</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>357.2070806699136</v>
+        <v>84.02311000448033</v>
       </c>
       <c r="G2" t="n">
         <v>412.9169039459368</v>
@@ -677,7 +677,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646389</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>44.02759616143415</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>9.579478589972654</v>
       </c>
       <c r="T4" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>322.4224698088231</v>
       </c>
       <c r="G5" t="n">
-        <v>303.3137933296038</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>157.6001965539139</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>125.4189382090671</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>346.2508459391533</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>53.17987486255294</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.23972555294948</v>
+        <v>12.23972555294947</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>308.1057308580341</v>
       </c>
       <c r="I8" t="n">
-        <v>92.38912089824676</v>
+        <v>92.38912089824643</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>139.2216844979415</v>
       </c>
       <c r="T8" t="n">
         <v>209.687514699664</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1006119508617</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.704661281745</v>
       </c>
       <c r="H9" t="n">
-        <v>96.40754664444702</v>
+        <v>96.40754664444698</v>
       </c>
       <c r="I9" t="n">
-        <v>32.97111237112986</v>
+        <v>32.9711123711297</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2421419020534</v>
+        <v>141.2421419020533</v>
       </c>
       <c r="T9" t="n">
         <v>193.5589894182124</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>150.0114037757904</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>114.1316988901463</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>115.5150762987063</v>
       </c>
       <c r="S10" t="n">
-        <v>170.0193421006662</v>
+        <v>173.1780999968463</v>
       </c>
       <c r="T10" t="n">
         <v>222.0750257228877</v>
@@ -1348,7 +1348,7 @@
         <v>286.244085990039</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>315.3998342615167</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
@@ -1388,7 +1388,7 @@
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>24.14662204184583</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>98.88510599615226</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>311.4192054771223</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812554</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530802</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075613</v>
+        <v>123.6502311075614</v>
       </c>
       <c r="T12" t="n">
         <v>189.7415240061373</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905253</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.2820528092101</v>
+        <v>30.05706037504152</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174144</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819328</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.255571502167732</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428608</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503995</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>65.99480013030487</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520927</v>
       </c>
     </row>
     <row r="20">
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>126.5816737497794</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>113.5413580759688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>55.4097602225702</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>249.0584607366399</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703262</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428175</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695462</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>75.92936329650543</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4.019807611471797</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576152</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833787</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.282116088006</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428134</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.520020130478</v>
+        <v>1231.14934342478</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.520020130478</v>
+        <v>1231.14934342478</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.520020130478</v>
+        <v>872.8836448180298</v>
       </c>
       <c r="E2" t="n">
-        <v>1268.520020130478</v>
+        <v>872.8836448180298</v>
       </c>
       <c r="F2" t="n">
-        <v>907.7047871305651</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G2" t="n">
-        <v>490.6170053669925</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H2" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K2" t="n">
-        <v>156.4983241075885</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L2" t="n">
-        <v>709.3115823537878</v>
+        <v>876.7172313741407</v>
       </c>
       <c r="M2" t="n">
-        <v>1341.029393337099</v>
+        <v>1508.435042357452</v>
       </c>
       <c r="N2" t="n">
-        <v>1942.166326942443</v>
+        <v>1702.769255249435</v>
       </c>
       <c r="O2" t="n">
-        <v>2489.327531709521</v>
+        <v>2249.930460016512</v>
       </c>
       <c r="P2" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4367,13 +4367,13 @@
         <v>2381.354273725794</v>
       </c>
       <c r="W2" t="n">
-        <v>2028.585618455679</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="X2" t="n">
-        <v>1655.1198601946</v>
+        <v>2007.888515464714</v>
       </c>
       <c r="Y2" t="n">
-        <v>1655.1198601946</v>
+        <v>1617.749183488902</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D3" t="n">
         <v>642.7351650238404</v>
@@ -4410,22 +4410,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>382.1293238454227</v>
+        <v>295.3416275592179</v>
       </c>
       <c r="L3" t="n">
-        <v>886.4908637115414</v>
+        <v>799.7031674253365</v>
       </c>
       <c r="M3" t="n">
-        <v>1527.036213178646</v>
+        <v>1440.248516892441</v>
       </c>
       <c r="N3" t="n">
-        <v>1725.692954831311</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O3" t="n">
-        <v>2275.128963584034</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P3" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>537.5892342743621</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C4" t="n">
-        <v>537.5892342743621</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D4" t="n">
-        <v>387.4725948620263</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
-        <v>239.5595012796332</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>239.5595012796332</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
         <v>52.70091953961285</v>
@@ -4513,25 +4513,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S4" t="n">
-        <v>1052.635600998958</v>
+        <v>1042.959359998985</v>
       </c>
       <c r="T4" t="n">
-        <v>827.0064043113226</v>
+        <v>817.3301633113501</v>
       </c>
       <c r="U4" t="n">
-        <v>827.0064043113226</v>
+        <v>528.1779868890299</v>
       </c>
       <c r="V4" t="n">
-        <v>827.0064043113226</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="W4" t="n">
-        <v>537.5892342743621</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X4" t="n">
-        <v>537.5892342743621</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y4" t="n">
-        <v>537.5892342743621</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1172.90259207641</v>
+        <v>1187.609344130066</v>
       </c>
       <c r="C5" t="n">
-        <v>803.9400751359979</v>
+        <v>1187.609344130066</v>
       </c>
       <c r="D5" t="n">
-        <v>803.9400751359979</v>
+        <v>829.3436455233157</v>
       </c>
       <c r="E5" t="n">
-        <v>803.9400751359979</v>
+        <v>829.3436455233157</v>
       </c>
       <c r="F5" t="n">
-        <v>796.9945743867944</v>
+        <v>503.664383090161</v>
       </c>
       <c r="G5" t="n">
         <v>490.6170053669925</v>
@@ -4565,25 +4565,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>323.9039731279416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>876.7172313741407</v>
+        <v>295.8269799488417</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.435042357452</v>
+        <v>927.5447909321535</v>
       </c>
       <c r="N5" t="n">
-        <v>2135.742710417299</v>
+        <v>1554.852458992</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U5" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V5" t="n">
-        <v>1932.968190401611</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W5" t="n">
-        <v>1932.968190401611</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X5" t="n">
-        <v>1559.502432140531</v>
+        <v>1577.748676105878</v>
       </c>
       <c r="Y5" t="n">
-        <v>1559.502432140531</v>
+        <v>1187.609344130066</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>1645.695465035541</v>
       </c>
       <c r="N6" t="n">
-        <v>1844.352206688206</v>
+        <v>2297.86934433825</v>
       </c>
       <c r="O6" t="n">
-        <v>2003.864519356967</v>
+        <v>2457.381657007011</v>
       </c>
       <c r="P6" t="n">
-        <v>2427.832287837804</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C7" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="U7" t="n">
-        <v>893.4434832677315</v>
+        <v>407.376266608405</v>
       </c>
       <c r="V7" t="n">
-        <v>638.7589950618446</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="W7" t="n">
-        <v>349.3418250248841</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X7" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y7" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1663.17480825174</v>
+        <v>934.3074830885971</v>
       </c>
       <c r="C8" t="n">
-        <v>1313.426479020272</v>
+        <v>934.3074830885971</v>
       </c>
       <c r="D8" t="n">
-        <v>955.1607804135215</v>
+        <v>934.3074830885971</v>
       </c>
       <c r="E8" t="n">
-        <v>569.3725278152772</v>
+        <v>880.5904377728871</v>
       </c>
       <c r="F8" t="n">
-        <v>158.3866230256697</v>
+        <v>469.6045329832796</v>
       </c>
       <c r="G8" t="n">
-        <v>146.0232638812763</v>
+        <v>457.2411738388861</v>
       </c>
       <c r="H8" t="n">
-        <v>146.0232638812763</v>
+        <v>146.0232638812759</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>130.8350924684854</v>
+        <v>298.2407414888391</v>
       </c>
       <c r="K8" t="n">
-        <v>298.6764817399685</v>
+        <v>466.0821307603234</v>
       </c>
       <c r="L8" t="n">
-        <v>950.8503610426775</v>
+        <v>1118.256010063032</v>
       </c>
       <c r="M8" t="n">
-        <v>1255.267308360743</v>
+        <v>1422.672957381099</v>
       </c>
       <c r="N8" t="n">
-        <v>1718.820133656393</v>
+        <v>1736.629497543726</v>
       </c>
       <c r="O8" t="n">
-        <v>2001.94513052518</v>
+        <v>2320.525851614945</v>
       </c>
       <c r="P8" t="n">
-        <v>2527.665485255196</v>
+        <v>2527.665485255195</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4829,25 +4829,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2494.418012841308</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.240406576941</v>
+        <v>2282.612442437607</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.240406576941</v>
+        <v>2028.975460669059</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.240406576941</v>
+        <v>1697.912573325489</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.240406576941</v>
+        <v>1697.912573325489</v>
       </c>
       <c r="X8" t="n">
-        <v>2049.774648315862</v>
+        <v>1324.446815064409</v>
       </c>
       <c r="Y8" t="n">
-        <v>2049.774648315862</v>
+        <v>934.3074830885971</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>949.6213010538162</v>
+        <v>949.621301053816</v>
       </c>
       <c r="C9" t="n">
-        <v>775.1682717726892</v>
+        <v>775.168271772689</v>
       </c>
       <c r="D9" t="n">
-        <v>626.2338621114379</v>
+        <v>626.2338621114377</v>
       </c>
       <c r="E9" t="n">
-        <v>466.9964071059824</v>
+        <v>466.9964071059821</v>
       </c>
       <c r="F9" t="n">
-        <v>320.4618491328673</v>
+        <v>320.4618491328671</v>
       </c>
       <c r="G9" t="n">
-        <v>183.3864336967612</v>
+        <v>183.386433696761</v>
       </c>
       <c r="H9" t="n">
-        <v>86.00507344984504</v>
+        <v>86.00507344984487</v>
       </c>
       <c r="I9" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>205.2493756933903</v>
+        <v>80.41925070638597</v>
       </c>
       <c r="K9" t="n">
-        <v>592.5998279356143</v>
+        <v>205.9491183061578</v>
       </c>
       <c r="L9" t="n">
-        <v>807.7127674265012</v>
+        <v>449.2454658057599</v>
       </c>
       <c r="M9" t="n">
-        <v>1207.141931315309</v>
+        <v>1101.419345108469</v>
       </c>
       <c r="N9" t="n">
-        <v>1499.090345852277</v>
+        <v>1393.367759645439</v>
       </c>
       <c r="O9" t="n">
-        <v>2133.870009286442</v>
+        <v>2028.147423079605</v>
       </c>
       <c r="P9" t="n">
-        <v>2311.055443725102</v>
+        <v>2520.610998471804</v>
       </c>
       <c r="Q9" t="n">
-        <v>2587.556532757876</v>
+        <v>2589.135572646087</v>
       </c>
       <c r="R9" t="n">
         <v>2589.135572646087</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>466.4020818516008</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C10" t="n">
-        <v>466.4020818516008</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>466.4020818516008</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>466.4020818516008</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>319.5121343536904</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>319.5121343536904</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>167.985463873094</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
-        <v>56.44303377193427</v>
+        <v>56.44303377193454</v>
       </c>
       <c r="K10" t="n">
-        <v>192.4293137012955</v>
+        <v>192.4293137012963</v>
       </c>
       <c r="L10" t="n">
-        <v>421.9713681763058</v>
+        <v>421.9713681763071</v>
       </c>
       <c r="M10" t="n">
-        <v>674.3804035438126</v>
+        <v>674.3804035438145</v>
       </c>
       <c r="N10" t="n">
-        <v>926.222332634067</v>
+        <v>926.2223326340695</v>
       </c>
       <c r="O10" t="n">
-        <v>1142.822820431834</v>
+        <v>1142.822820431837</v>
       </c>
       <c r="P10" t="n">
-        <v>1304.641274404489</v>
+        <v>1304.641274404493</v>
       </c>
       <c r="Q10" t="n">
-        <v>1333.240904069308</v>
+        <v>1333.240904069312</v>
       </c>
       <c r="R10" t="n">
-        <v>1333.240904069308</v>
+        <v>1216.559008818094</v>
       </c>
       <c r="S10" t="n">
-        <v>1161.504194876716</v>
+        <v>1041.631635083905</v>
       </c>
       <c r="T10" t="n">
-        <v>937.1859870758194</v>
+        <v>817.3134272830087</v>
       </c>
       <c r="U10" t="n">
-        <v>648.0505466818405</v>
+        <v>528.1779868890299</v>
       </c>
       <c r="V10" t="n">
-        <v>648.0505466818405</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="W10" t="n">
-        <v>648.0505466818405</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X10" t="n">
-        <v>648.0505466818405</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y10" t="n">
-        <v>648.0505466818405</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1947.664647156212</v>
+        <v>1872.090169197686</v>
       </c>
       <c r="C11" t="n">
-        <v>1578.7021302158</v>
+        <v>1553.504478024437</v>
       </c>
       <c r="D11" t="n">
-        <v>1220.43643160905</v>
+        <v>1195.238779417687</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>809.4505268194424</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194423</v>
+        <v>809.4505268194424</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>394.8347622605879</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592057</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.4060796706885</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656976</v>
+        <v>695.1615405656948</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625331</v>
+        <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087828</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.600890484038</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3033.988513535291</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479996</v>
+        <v>3493.127967479988</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.749829464053</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796029</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345379</v>
+        <v>3776.99935034537</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926744</v>
+        <v>3573.020743926734</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048272</v>
+        <v>3319.526802048263</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704701</v>
+        <v>2988.463914704692</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434587</v>
+        <v>2635.695259434578</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173507</v>
+        <v>2262.229501173498</v>
       </c>
       <c r="Y11" t="n">
-        <v>1947.664647156212</v>
+        <v>1872.090169197686</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
         <v>312.3928428722697</v>
@@ -5112,34 +5112,34 @@
         <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592057</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>193.8410919870408</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046656</v>
+        <v>470.7769964046645</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626173</v>
+        <v>889.4740370626154</v>
       </c>
       <c r="M12" t="n">
-        <v>1199.396765180068</v>
+        <v>996.4574081599385</v>
       </c>
       <c r="N12" t="n">
-        <v>1735.206074881278</v>
+        <v>1532.266717861148</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.147119213801</v>
+        <v>2000.20776219367</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2356.438638438443</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868988</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.0422360149786</v>
+        <v>374.5442528261667</v>
       </c>
       <c r="C13" t="n">
-        <v>542.0422360149786</v>
+        <v>374.5442528261667</v>
       </c>
       <c r="D13" t="n">
-        <v>391.9255966026428</v>
+        <v>224.4276134138309</v>
       </c>
       <c r="E13" t="n">
-        <v>391.9255966026428</v>
+        <v>224.4276134138309</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047325</v>
+        <v>77.53766591592057</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592057</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592057</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592057</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758646</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648146</v>
+        <v>364.1690246648138</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344811</v>
+        <v>710.5788654344799</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376938</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336946</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818662</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.94034901072</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742805</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.74346692558</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742808</v>
+        <v>1868.627619458876</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177249</v>
+        <v>1647.736286893316</v>
       </c>
       <c r="U13" t="n">
-        <v>1627.3799431267</v>
+        <v>1358.644593842768</v>
       </c>
       <c r="V13" t="n">
-        <v>1372.695454920813</v>
+        <v>1103.960105636881</v>
       </c>
       <c r="W13" t="n">
-        <v>1083.278284883852</v>
+        <v>814.5429355999202</v>
       </c>
       <c r="X13" t="n">
-        <v>855.2887339858348</v>
+        <v>586.5533847019028</v>
       </c>
       <c r="Y13" t="n">
-        <v>723.6907008452183</v>
+        <v>556.1927176564063</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5294,25 +5294,25 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400756</v>
       </c>
       <c r="C16" t="n">
-        <v>633.992644467967</v>
+        <v>344.9174178121688</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121688</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121688</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,10 +5546,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1560.525577339777</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1271.108407302816</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1271.108407302816</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,19 +5996,19 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C25" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2332.274843099483</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2043.199616443681</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1788.515128237794</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1271.108407302816</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>835.5837926935566</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,7 +6385,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565344</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6479,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>551.354624631591</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D31" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
         <v>435.7419440038343</v>
@@ -6631,10 +6631,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1725.886877746226</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1471.202389540339</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1181.785219503378</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>953.7956686053609</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.0030894618308</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6777,22 +6777,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1320.560501433898</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1872.470231673185</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121639</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,22 +6871,22 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
         <v>1688.385853854706</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121639</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121639</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,16 +7093,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,22 +7199,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6605733532801</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253733</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7336,7 +7336,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="41">
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,7 +7436,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797742</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,22 +7640,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7664,34 +7664,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2299.457522348532</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400709</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>344.917417812164</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>344.917417812164</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>344.917417812164</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.917417812164</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270439</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7822,7 +7822,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
@@ -7831,10 +7831,10 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
         <v>1688.385853854706</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703106</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>410.9118391044057</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>29.50023327242701</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,7 +8058,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>176.8008973295434</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>20.72114122105256</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8228,13 +8228,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>185.2684807830933</v>
+        <v>237.9126116742297</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8304,16 +8304,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>46.70479923672266</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.3401494352142</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>411.1616489925487</v>
+        <v>411.1616489925474</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>151.1073587202272</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>303.8094517196275</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>23.17861264449289</v>
+        <v>23.17861264449235</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>28.46808889769108</v>
       </c>
       <c r="M9" t="n">
-        <v>130.3491328813598</v>
+        <v>385.6468252186331</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>43.92668002524803</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>49.87305750949088</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>74.81873317893132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>90.25352389927383</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.30260054288468</v>
+        <v>188.5275929770533</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>147.3599015160446</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864516</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844822829</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>186.1428431935231</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>125.5559695740486</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.8640922513194</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>111.8370608760576</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393041</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>37.12601365260423</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194264</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194214</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.9026168854319</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5956654067406</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.4596884482313</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.54986409393125</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194255</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1104021.162161007</v>
+        <v>1104021.162161006</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>958465.457206839</v>
+        <v>958465.4572068377</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1055390.019247132</v>
+        <v>1055390.019247131</v>
       </c>
     </row>
     <row r="8">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389277</v>
@@ -26320,40 +26320,40 @@
         <v>369468.7964389275</v>
       </c>
       <c r="E2" t="n">
-        <v>329665.1599234783</v>
+        <v>329665.1599234781</v>
       </c>
       <c r="F2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="G2" t="n">
         <v>363215.9698605027</v>
-      </c>
-      <c r="G2" t="n">
-        <v>363215.9698605028</v>
       </c>
       <c r="H2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="J2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="M2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="N2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="O2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="P2" t="n">
         <v>363215.9698605029</v>
-      </c>
-      <c r="P2" t="n">
-        <v>363215.9698605028</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>144261.3327426453</v>
+        <v>144261.332742647</v>
       </c>
       <c r="E3" t="n">
-        <v>446448.3338318954</v>
+        <v>446448.3338318915</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704286</v>
+        <v>189308.268770431</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.992400281</v>
+        <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>77367.70679951795</v>
+        <v>77367.70679951736</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202352</v>
+        <v>49839.57413202411</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>160336.9200875358</v>
+        <v>160336.9200875355</v>
       </c>
       <c r="E4" t="n">
-        <v>6792.005937060821</v>
+        <v>6792.00593706082</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707352</v>
+        <v>6897.424496707365</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="K4" t="n">
-        <v>6897.424496707304</v>
-      </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707381</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707365</v>
+        <v>6897.424496707391</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707362</v>
+        <v>6897.424496707401</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.42449670741</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>86618.07783747558</v>
       </c>
       <c r="D5" t="n">
-        <v>90290.24696804755</v>
+        <v>90290.24696804761</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673857</v>
+        <v>85137.48506738551</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-699688.5075311516</v>
+        <v>-699688.5075311518</v>
       </c>
       <c r="C6" t="n">
-        <v>92958.90617983331</v>
+        <v>92958.90617983328</v>
       </c>
       <c r="D6" t="n">
-        <v>-25419.70335930117</v>
+        <v>-25419.70335930263</v>
       </c>
       <c r="E6" t="n">
-        <v>-208712.6649128636</v>
+        <v>-208933.7962268345</v>
       </c>
       <c r="F6" t="n">
-        <v>65887.74676945961</v>
+        <v>65853.00884402146</v>
       </c>
       <c r="G6" t="n">
-        <v>255196.0155398883</v>
+        <v>255161.2776144525</v>
       </c>
       <c r="H6" t="n">
-        <v>255196.0155398884</v>
+        <v>255161.2776144528</v>
       </c>
       <c r="I6" t="n">
-        <v>255196.0155398882</v>
+        <v>255161.2776144525</v>
       </c>
       <c r="J6" t="n">
-        <v>82835.02313960718</v>
+        <v>82800.28521417169</v>
       </c>
       <c r="K6" t="n">
-        <v>255196.0155398881</v>
+        <v>255161.2776144525</v>
       </c>
       <c r="L6" t="n">
-        <v>255196.0155398884</v>
+        <v>255161.2776144525</v>
       </c>
       <c r="M6" t="n">
-        <v>177828.3087403703</v>
+        <v>177793.5708149353</v>
       </c>
       <c r="N6" t="n">
-        <v>205356.4414078647</v>
+        <v>205321.7034824284</v>
       </c>
       <c r="O6" t="n">
-        <v>255196.0155398884</v>
+        <v>255161.2776144523</v>
       </c>
       <c r="P6" t="n">
-        <v>255196.0155398883</v>
+        <v>255161.2776144527</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.268305166733594e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26741,10 +26741,10 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>761.9242255936601</v>
+        <v>761.9242255936623</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.241237214949</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26796,10 +26796,10 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490095</v>
+        <v>969.2208239490071</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26963,31 +26963,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>168.4481252555951</v>
+        <v>168.4481252555972</v>
       </c>
       <c r="E3" t="n">
-        <v>440.3170116212904</v>
+        <v>440.3170116212865</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267252</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>310.4593297038489</v>
+        <v>310.4593297038465</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506415</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.4593297038489</v>
+        <v>310.4593297038465</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506412</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.4593297038489</v>
+        <v>310.4593297038465</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506415</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>49.66896507179786</v>
+        <v>322.8529357372311</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>122.8931803931363</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>195.786403310146</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,23 +27613,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>84.45357593288838</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>109.603110616333</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27789,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.6604581041831</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>126.7187051147609</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>19.02204583185426</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>328.7504952097088</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>308.1057308580342</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>139.2216844979417</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1006119508617</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.6170176401751</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>150.0114037757904</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>114.1316988901462</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.5150762987065</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>30.05285035494464</v>
+        <v>26.89409245876445</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-7.194992212325636e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.524736141320318e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>2.073837398105146e-12</v>
       </c>
     </row>
     <row r="20">
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.063011962185566</v>
+        <v>3.063011962185575</v>
       </c>
       <c r="H8" t="n">
-        <v>31.36907125773294</v>
+        <v>31.36907125773303</v>
       </c>
       <c r="I8" t="n">
-        <v>118.0867686721592</v>
+        <v>118.0867686721595</v>
       </c>
       <c r="J8" t="n">
-        <v>259.9693115255474</v>
+        <v>259.9693115255482</v>
       </c>
       <c r="K8" t="n">
-        <v>389.6266078848625</v>
+        <v>389.6266078848636</v>
       </c>
       <c r="L8" t="n">
-        <v>483.3662602225991</v>
+        <v>483.3662602226005</v>
       </c>
       <c r="M8" t="n">
-        <v>537.8380992051167</v>
+        <v>537.8380992051182</v>
       </c>
       <c r="N8" t="n">
-        <v>546.5408819426765</v>
+        <v>546.540881942678</v>
       </c>
       <c r="O8" t="n">
-        <v>516.0830567436936</v>
+        <v>516.0830567436951</v>
       </c>
       <c r="P8" t="n">
-        <v>440.4649489272375</v>
+        <v>440.4649489272387</v>
       </c>
       <c r="Q8" t="n">
-        <v>330.7708330314668</v>
+        <v>330.7708330314677</v>
       </c>
       <c r="R8" t="n">
-        <v>192.4069251696392</v>
+        <v>192.4069251696398</v>
       </c>
       <c r="S8" t="n">
-        <v>69.79838508830366</v>
+        <v>69.79838508830386</v>
       </c>
       <c r="T8" t="n">
-        <v>13.40833486446732</v>
+        <v>13.40833486446736</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2450409569748452</v>
+        <v>0.2450409569748459</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.638855881465609</v>
+        <v>1.638855881465613</v>
       </c>
       <c r="H9" t="n">
-        <v>15.82789759204943</v>
+        <v>15.82789759204948</v>
       </c>
       <c r="I9" t="n">
-        <v>56.42552048028521</v>
+        <v>56.42552048028538</v>
       </c>
       <c r="J9" t="n">
-        <v>154.8359409765381</v>
+        <v>154.8359409765385</v>
       </c>
       <c r="K9" t="n">
-        <v>264.6392850347339</v>
+        <v>264.6392850347346</v>
       </c>
       <c r="L9" t="n">
-        <v>355.8401772454165</v>
+        <v>355.8401772454175</v>
       </c>
       <c r="M9" t="n">
-        <v>415.2487029485447</v>
+        <v>415.2487029485459</v>
       </c>
       <c r="N9" t="n">
-        <v>426.2391005045137</v>
+        <v>426.239100504515</v>
       </c>
       <c r="O9" t="n">
-        <v>389.9255043941442</v>
+        <v>389.9255043941453</v>
       </c>
       <c r="P9" t="n">
-        <v>312.9495937160074</v>
+        <v>312.9495937160082</v>
       </c>
       <c r="Q9" t="n">
-        <v>209.1985156762065</v>
+        <v>209.1985156762071</v>
       </c>
       <c r="R9" t="n">
-        <v>101.7528239387156</v>
+        <v>101.7528239387159</v>
       </c>
       <c r="S9" t="n">
-        <v>30.44102920178442</v>
+        <v>30.44102920178451</v>
       </c>
       <c r="T9" t="n">
-        <v>6.605739276609183</v>
+        <v>6.605739276609202</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1078194658858953</v>
+        <v>0.1078194658858957</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.373961718283649</v>
+        <v>1.373961718283653</v>
       </c>
       <c r="H10" t="n">
-        <v>12.21576873164918</v>
+        <v>12.21576873164922</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31877603711194</v>
+        <v>41.31877603711206</v>
       </c>
       <c r="J10" t="n">
-        <v>97.139093482654</v>
+        <v>97.13909348265427</v>
       </c>
       <c r="K10" t="n">
-        <v>159.6293705424094</v>
+        <v>159.6293705424098</v>
       </c>
       <c r="L10" t="n">
-        <v>204.2706358255528</v>
+        <v>204.2706358255533</v>
       </c>
       <c r="M10" t="n">
-        <v>215.3747446214996</v>
+        <v>215.3747446215003</v>
       </c>
       <c r="N10" t="n">
-        <v>210.2536145806244</v>
+        <v>210.253614580625</v>
       </c>
       <c r="O10" t="n">
-        <v>194.2032435988562</v>
+        <v>194.2032435988568</v>
       </c>
       <c r="P10" t="n">
-        <v>166.1744245458697</v>
+        <v>166.1744245458701</v>
       </c>
       <c r="Q10" t="n">
-        <v>115.0505580646427</v>
+        <v>115.050558064643</v>
       </c>
       <c r="R10" t="n">
-        <v>61.77831507846298</v>
+        <v>61.77831507846315</v>
       </c>
       <c r="S10" t="n">
-        <v>23.94440558136141</v>
+        <v>23.94440558136148</v>
       </c>
       <c r="T10" t="n">
-        <v>5.870563705393772</v>
+        <v>5.870563705393789</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0749433664518355</v>
+        <v>0.07494336645183572</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869137</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639231</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285601</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203911</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975118</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544645</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954547</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180155</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956792</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620348</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825961</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696625</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900931</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.15702920968216</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495309</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858569</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837092</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469197</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193134</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598381</v>
+        <v>417.5746757598375</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747741</v>
       </c>
       <c r="M12" t="n">
-        <v>455.1872946467156</v>
+        <v>250.1980451314356</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>672.5632370340495</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>615.2639659924465</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383438</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047535</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605172</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627646</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868432</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643796</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535153</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092165</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798445</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085353</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329023</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100537</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770058</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531024</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806234</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493061</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194573</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811696</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493534</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377471</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473721</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>369.1789913099994</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,25 +33497,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>548.8125296967492</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>688.8020111197787</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34451,7 +34451,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>359.1374415194863</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K2" t="n">
         <v>83.39712583292157</v>
@@ -34708,16 +34708,16 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>607.2090238437818</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>141.3530870598275</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>332.7559639452625</v>
+        <v>245.0916242622273</v>
       </c>
       <c r="L3" t="n">
         <v>509.4561008748672</v>
@@ -34793,10 +34793,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>130.5086437738797</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q3" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
         <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
@@ -34948,13 +34948,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>357.1563851436585</v>
+        <v>409.8005160347949</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
         <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>156.4923017895498</v>
       </c>
       <c r="Q6" t="n">
-        <v>209.3067567099384</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>78.92340699886114</v>
+        <v>248.0200221709356</v>
       </c>
       <c r="K8" t="n">
-        <v>169.5367568398819</v>
+        <v>169.5367568398831</v>
       </c>
       <c r="L8" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="M8" t="n">
-        <v>307.491865977844</v>
+        <v>307.4918659778455</v>
       </c>
       <c r="N8" t="n">
-        <v>468.2351770663128</v>
+        <v>317.1278183460871</v>
       </c>
       <c r="O8" t="n">
-        <v>285.9848453220069</v>
+        <v>589.7942970416359</v>
       </c>
       <c r="P8" t="n">
-        <v>531.0306613434506</v>
+        <v>209.2319531719692</v>
       </c>
       <c r="Q8" t="n">
-        <v>108.4651431570173</v>
+        <v>108.4651431570182</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>154.0893496502802</v>
+        <v>27.99831430987183</v>
       </c>
       <c r="K9" t="n">
-        <v>391.2630830729535</v>
+        <v>126.7978460603756</v>
       </c>
       <c r="L9" t="n">
-        <v>217.2857974655423</v>
+        <v>245.7538863632344</v>
       </c>
       <c r="M9" t="n">
-        <v>403.4638019078862</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="N9" t="n">
-        <v>294.8973884211804</v>
+        <v>294.8973884211816</v>
       </c>
       <c r="O9" t="n">
-        <v>641.1915792264292</v>
+        <v>641.1915792264303</v>
       </c>
       <c r="P9" t="n">
-        <v>178.9751863016771</v>
+        <v>497.4379549416151</v>
       </c>
       <c r="Q9" t="n">
-        <v>279.2940293260341</v>
+        <v>69.21674159018556</v>
       </c>
       <c r="R9" t="n">
-        <v>1.594989786072503</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.77991336598123</v>
+        <v>3.7799133659815</v>
       </c>
       <c r="K10" t="n">
-        <v>137.3598787165265</v>
+        <v>137.359878716527</v>
       </c>
       <c r="L10" t="n">
-        <v>231.8606610858689</v>
+        <v>231.8606610858695</v>
       </c>
       <c r="M10" t="n">
-        <v>254.9586215833402</v>
+        <v>254.9586215833409</v>
       </c>
       <c r="N10" t="n">
-        <v>254.385786959853</v>
+        <v>254.3857869598536</v>
       </c>
       <c r="O10" t="n">
-        <v>218.7883715128959</v>
+        <v>218.7883715128965</v>
       </c>
       <c r="P10" t="n">
-        <v>163.4529838107632</v>
+        <v>163.4529838107636</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.88851481294829</v>
+        <v>28.88851481294861</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937048</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525312</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844772</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.309210568182</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214247</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739924</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067653</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081466</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553034</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526467</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>279.7332367854785</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036948999</v>
       </c>
       <c r="M12" t="n">
-        <v>313.0532607246973</v>
+        <v>108.0640112094173</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>541.2215249507162</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>472.6677215480021</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240136</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.112838818732</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655325</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186256</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070194</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703698</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388464</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.891627232331</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946631</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022141996</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776289</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>191.358233988438</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>226.582746865555</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096343</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,25 +37145,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>414.838122282419</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>546.2057666753343</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38099,7 +38099,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>219.1556674334648</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
